--- a/res/page/优惠管理/VoucherPage.xlsx
+++ b/res/page/优惠管理/VoucherPage.xlsx
@@ -51,7 +51,7 @@
     <t>启用</t>
   </si>
   <si>
-    <t>//*[@id="c_manageTable"]//div[@class='el-table__fixed-right']//span[contains(text(),'启用')]</t>
+    <t>//*[@id="c_manageTable"]//div[@class='el-table__fixed-right']//span[text()='启用']</t>
   </si>
   <si>
     <t>禁用</t>
@@ -180,8 +180,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -208,6 +208,73 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -215,6 +282,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -223,22 +297,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,68 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,22 +343,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -371,19 +371,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +479,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,102 +540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +568,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,35 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,32 +646,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/优惠管理/VoucherPage.xlsx
+++ b/res/page/优惠管理/VoucherPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>别名</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>//ul[@id='ParkTree']</t>
+  </si>
+  <si>
+    <t>支持停车场</t>
+  </si>
+  <si>
+    <t>//*[@id='app']//label[contains(text(),'财务主体')]/following-sibling::*[1]//span[text()='选择停车场']</t>
+  </si>
+  <si>
+    <t>选择支持停车场</t>
+  </si>
+  <si>
+    <t>//ul[@id='ParkTreeForFinance']</t>
+  </si>
+  <si>
+    <t>财务主体</t>
+  </si>
+  <si>
+    <t>//input[@class='financialParkId']</t>
   </si>
   <si>
     <t>结算类型</t>
@@ -179,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,6 +226,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -216,59 +242,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,6 +318,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -289,58 +333,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -359,12 +377,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,169 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,15 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -592,6 +601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,21 +621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,9 +642,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,13 +660,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,7 +918,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1179,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1423,48 +1441,81 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1" spans="1:3">
-      <c r="A22" s="4" t="s">
+    <row r="22" ht="27" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
+    <row r="23" ht="27" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="24" customHeight="1" spans="1:3">
-      <c r="A24" s="4" t="s">
+    <row r="24" ht="27" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="21" customHeight="1" spans="1:3">
+    <row r="25" ht="24" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
